--- a/dados_tratados/vias_faixa_azul.xlsx
+++ b/dados_tratados/vias_faixa_azul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\faixa-azul\dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1547CD-E159-4655-AB32-46B31AA59B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE946384-4BC0-4A76-9675-2F32D81CCC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFEB5CA4-DDBF-4FD4-8A54-AAD114B03AEE}"/>
   </bookViews>
@@ -47,69 +47,15 @@
     <t>ano</t>
   </si>
   <si>
-    <t>AVENIDA 23 DE MAIO</t>
-  </si>
-  <si>
-    <t>AVENIDA VINTE E TRES DE MAIO</t>
-  </si>
-  <si>
     <t>dia</t>
   </si>
   <si>
-    <t>AVENIDA DOS BANDEIRANTES</t>
-  </si>
-  <si>
-    <t>AVENIDA AFFONSO DESCRAGNOLLE TAUNAY</t>
-  </si>
-  <si>
-    <t>AVENIDA PRESTES MAIA</t>
-  </si>
-  <si>
-    <t>AVENIDA TIRADENTES</t>
-  </si>
-  <si>
-    <t>AVENIDA SANTOS DUMONT</t>
-  </si>
-  <si>
-    <t>AVENIDA RUBEM BERTA</t>
-  </si>
-  <si>
-    <t>AVENIDA MOREIRA GUIMARAES</t>
-  </si>
-  <si>
-    <t>AVENIDA SUMARE</t>
-  </si>
-  <si>
-    <t>AVENIDA PAULO VI</t>
-  </si>
-  <si>
-    <t>AVENIDA DAS NACOES UNIDAS</t>
-  </si>
-  <si>
-    <t>RUA MIGUEL YUNES</t>
-  </si>
-  <si>
-    <t>AVENIDA MIGUEL YUNES</t>
-  </si>
-  <si>
     <t>id_logradouro</t>
   </si>
   <si>
-    <t>AVENIDA BRIGADEIRO FARIA LIMA</t>
-  </si>
-  <si>
-    <t>AVENIDA ZAKI NARCHI</t>
-  </si>
-  <si>
-    <t>AVENIDA LUIZ DUMONT VILLARES</t>
-  </si>
-  <si>
     <t>ambos_lados</t>
   </si>
   <si>
-    <t>AVENIDA JACU PESSEGO</t>
-  </si>
-  <si>
     <t>completa</t>
   </si>
   <si>
@@ -119,40 +65,94 @@
     <t>id_trecho</t>
   </si>
   <si>
-    <t>AVENIDA DO ESTADO</t>
-  </si>
-  <si>
-    <t>TUNEL SAO JOAO PAULO II</t>
-  </si>
-  <si>
-    <t>RUA SANTA EULALIA</t>
-  </si>
-  <si>
-    <t>TUNEL AYRTON SENNA</t>
-  </si>
-  <si>
-    <t>ACESSO TUNEL AYRTON SENNA</t>
-  </si>
-  <si>
-    <t>AVENIDA WASHINGTON LUIS</t>
-  </si>
-  <si>
-    <t>AVENIDA DOUTOR GASTAO VIDIGAL</t>
-  </si>
-  <si>
-    <t>AVENIDA PRESIDENTE TANCREDO NEVES</t>
-  </si>
-  <si>
-    <t>VIADUTO MINISTRO ALIOMAR BALEEIRO</t>
-  </si>
-  <si>
-    <t>AVENIDA PROFESSOR LUIZ IGNACIO ANHAIA MELLO</t>
-  </si>
-  <si>
-    <t>VIA ELEVADO PRESIDENTE JOAO GOULART</t>
-  </si>
-  <si>
-    <t>AVENIDA DO CURSINO</t>
+    <t>AVENIDA 23 DE MAIO</t>
+  </si>
+  <si>
+    <t>AVENIDA VINTE E TRES DE MAIO</t>
+  </si>
+  <si>
+    <t>AVENIDA DOS BANDEIRANTES</t>
+  </si>
+  <si>
+    <t>AVENIDA AFFONSO DESCRAGNOLLE TAUNAY</t>
+  </si>
+  <si>
+    <t>AVENIDA PRESTES MAIA</t>
+  </si>
+  <si>
+    <t>AVENIDA TIRADENTES</t>
+  </si>
+  <si>
+    <t>AVENIDA SANTOS DUMONT</t>
+  </si>
+  <si>
+    <t>AVENIDA RUBEM BERTA</t>
+  </si>
+  <si>
+    <t>AVENIDA MOREIRA GUIMARAES</t>
+  </si>
+  <si>
+    <t>AVENIDA SUMARE</t>
+  </si>
+  <si>
+    <t>AVENIDA PAULO VI</t>
+  </si>
+  <si>
+    <t>AVENIDA DAS NACOES UNIDAS</t>
+  </si>
+  <si>
+    <t>RUA MIGUEL YUNES</t>
+  </si>
+  <si>
+    <t>AVENIDA MIGUEL YUNES</t>
+  </si>
+  <si>
+    <t>AVENIDA BRIGADEIRO FARIA LIMA</t>
+  </si>
+  <si>
+    <t>AVENIDA ZAKI NARCHI</t>
+  </si>
+  <si>
+    <t>AVENIDA LUIZ DUMONT VILLARES</t>
+  </si>
+  <si>
+    <t>AVENIDA JACU PESSEGO</t>
+  </si>
+  <si>
+    <t>AVENIDA DO ESTADO</t>
+  </si>
+  <si>
+    <t>TUNEL SAO JOAO PAULO II</t>
+  </si>
+  <si>
+    <t>RUA SANTA EULALIA</t>
+  </si>
+  <si>
+    <t>TUNEL AYRTON SENNA</t>
+  </si>
+  <si>
+    <t>ACESSO TUNEL AYRTON SENNA</t>
+  </si>
+  <si>
+    <t>AVENIDA WASHINGTON LUIS</t>
+  </si>
+  <si>
+    <t>AVENIDA DOUTOR GASTAO VIDIGAL</t>
+  </si>
+  <si>
+    <t>AVENIDA PRESIDENTE TANCREDO NEVES</t>
+  </si>
+  <si>
+    <t>VIADUTO MINISTRO ALIOMAR BALEEIRO</t>
+  </si>
+  <si>
+    <t>AVENIDA PROFESSOR LUIZ IGNACIO ANHAIA MELLO</t>
+  </si>
+  <si>
+    <t>VIA ELEVADO PRESIDENTE JOAO GOULART</t>
+  </si>
+  <si>
+    <t>AVENIDA DO CURSINO</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -552,24 +552,24 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>30</v>

--- a/dados_tratados/vias_faixa_azul.xlsx
+++ b/dados_tratados/vias_faixa_azul.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\faixa-azul\dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE946384-4BC0-4A76-9675-2F32D81CCC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02877606-B7FB-4686-B432-0D9A017F3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFEB5CA4-DDBF-4FD4-8A54-AAD114B03AEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>logradouro</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>AVENIDA DO CURSINO</t>
+  </si>
+  <si>
+    <t>logradouro_osm</t>
+  </si>
+  <si>
+    <t>AVENIDA JACUPESSEGO</t>
+  </si>
+  <si>
+    <t>ELEVADO PRESIDENTE JOAO GOULART</t>
+  </si>
+  <si>
+    <t>AVENIDA AFONSO DESCRAGNOLE TAUNAY</t>
   </si>
 </sst>
 </file>
@@ -524,747 +536,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502A61E-16EB-41AD-B341-B6C3C66FD837}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2022</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>5.5</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2022</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>5.5</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>6</v>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2022</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2022</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>2023</v>
-      </c>
-      <c r="H6">
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>2023</v>
-      </c>
-      <c r="H7">
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>2023</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>2023</v>
-      </c>
-      <c r="H9">
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>2023</v>
-      </c>
-      <c r="H10">
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="I10">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>6</v>
+      <c r="B11" t="s">
+        <v>18</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>2023</v>
-      </c>
-      <c r="H11">
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>6</v>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>2023</v>
-      </c>
-      <c r="H12">
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>2023</v>
-      </c>
-      <c r="H13">
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="I13">
         <v>11</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="D14">
-        <v>2023</v>
-      </c>
-      <c r="H14">
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="I14">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>11</v>
       </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="H15">
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
-      <c r="H16">
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="I16">
         <v>13</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>2023</v>
-      </c>
-      <c r="H17">
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="I17">
         <v>14</v>
       </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>2023</v>
-      </c>
-      <c r="H18">
+      <c r="E18">
+        <v>2023</v>
+      </c>
+      <c r="I18">
         <v>15</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>12</v>
       </c>
-      <c r="D19">
-        <v>2023</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
+        <v>2023</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20.2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>12</v>
       </c>
-      <c r="D20">
-        <v>2023</v>
-      </c>
-      <c r="F20">
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>17</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>28</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2024</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>18</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
         <v>30</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2024</v>
       </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
         <v>30</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2024</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>19</v>
       </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2024</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>20</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2024</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>20</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2024</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>21</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2024</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>22</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" t="s">
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
         <v>2024</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>7.4</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>23</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" t="s">
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
         <v>2024</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>24</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
         <v>2024</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.4</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>25</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
         <v>27</v>
       </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
       <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
         <v>2024</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5.5</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>26</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
         <v>27</v>
       </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
       <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
         <v>2024</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.7</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>27</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>13</v>
       </c>
     </row>

--- a/dados_tratados/vias_faixa_azul.xlsx
+++ b/dados_tratados/vias_faixa_azul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\faixa-azul\dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02877606-B7FB-4686-B432-0D9A017F3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4652E6D-94B5-4AE3-B3DF-F3263C3C4AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFEB5CA4-DDBF-4FD4-8A54-AAD114B03AEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>logradouro</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>AVENIDA AFONSO DESCRAGNOLE TAUNAY</t>
+  </si>
+  <si>
+    <t>COMPLEXO VIARIO AYRTON SENNA</t>
   </si>
 </sst>
 </file>
@@ -539,8 +542,8 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,7 +1132,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>30</v>
@@ -1155,7 +1158,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>30</v>

--- a/dados_tratados/vias_faixa_azul.xlsx
+++ b/dados_tratados/vias_faixa_azul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\faixa-azul\dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4652E6D-94B5-4AE3-B3DF-F3263C3C4AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C3E4E-E933-4D72-8A2F-C8FDE19A9EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFEB5CA4-DDBF-4FD4-8A54-AAD114B03AEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>logradouro</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>COMPLEXO VIARIO AYRTON SENNA</t>
+  </si>
+  <si>
+    <t>AVENIDA BRAZ LEME</t>
+  </si>
+  <si>
+    <t>AVENIDA ELISEU DE ALMEIDA</t>
   </si>
 </sst>
 </file>
@@ -539,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502A61E-16EB-41AD-B341-B6C3C66FD837}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,68 +1242,56 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>2024</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>7.4</v>
-      </c>
       <c r="I28">
         <v>23</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>2024</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
       <c r="I29">
         <v>24</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1308,25 +1302,28 @@
       <c r="E30">
         <v>2024</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
       <c r="H30">
-        <v>2.4</v>
+        <v>7.4</v>
       </c>
       <c r="I30">
         <v>25</v>
       </c>
       <c r="J30">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1334,31 +1331,28 @@
       <c r="E31">
         <v>2024</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>26</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -1366,17 +1360,75 @@
       <c r="E32">
         <v>2024</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="I32">
         <v>27</v>
       </c>
       <c r="J32">
         <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>2024</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>5.5</v>
+      </c>
+      <c r="I33">
+        <v>28</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>2024</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1.7</v>
+      </c>
+      <c r="I34">
+        <v>29</v>
+      </c>
+      <c r="J34">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/dados_tratados/vias_faixa_azul.xlsx
+++ b/dados_tratados/vias_faixa_azul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\faixa-azul\dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C3E4E-E933-4D72-8A2F-C8FDE19A9EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91A813-01A1-4FAA-BEC0-B125B3ED84F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFEB5CA4-DDBF-4FD4-8A54-AAD114B03AEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>logradouro</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>AVENIDA ELISEU DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>COMPLEXO VIARIO MARIA MALUF</t>
   </si>
 </sst>
 </file>
@@ -545,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502A61E-16EB-41AD-B341-B6C3C66FD837}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,10 +1320,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1331,12 +1334,6 @@
       <c r="E31">
         <v>2024</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
       <c r="I31">
         <v>26</v>
       </c>
@@ -1346,10 +1343,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1360,25 +1357,28 @@
       <c r="E32">
         <v>2024</v>
       </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
       <c r="H32">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>27</v>
       </c>
       <c r="J32">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1386,28 +1386,22 @@
       <c r="E33">
         <v>2024</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="I33">
         <v>28</v>
       </c>
       <c r="J33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>27</v>
@@ -1418,16 +1412,48 @@
       <c r="E34">
         <v>2024</v>
       </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="I34">
         <v>29</v>
       </c>
       <c r="J34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>2024</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1.7</v>
+      </c>
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35">
         <v>15</v>
       </c>
     </row>

--- a/dados_tratados/vias_faixa_azul.xlsx
+++ b/dados_tratados/vias_faixa_azul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\faixa-azul\dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91A813-01A1-4FAA-BEC0-B125B3ED84F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7C345-73F4-492D-B9B2-58D1CCD02A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFEB5CA4-DDBF-4FD4-8A54-AAD114B03AEE}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFEB5CA4-DDBF-4FD4-8A54-AAD114B03AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>logradouro</t>
   </si>
@@ -177,13 +177,19 @@
   </si>
   <si>
     <t>COMPLEXO VIARIO MARIA MALUF</t>
+  </si>
+  <si>
+    <t>ambos os lados em certos pontos</t>
+  </si>
+  <si>
+    <t>em certos pontos tem sentido duplo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +197,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,8 +232,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,21 +570,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502A61E-16EB-41AD-B341-B6C3C66FD837}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="43.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.23046875" customWidth="1"/>
+    <col min="4" max="4" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -626,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -658,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -690,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -706,6 +728,12 @@
       <c r="E5">
         <v>2022</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="I5">
         <v>3</v>
       </c>
@@ -713,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -726,6 +754,12 @@
       <c r="E6">
         <v>2023</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="I6">
         <v>4</v>
       </c>
@@ -733,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -746,6 +780,12 @@
       <c r="E7">
         <v>2023</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="I7">
         <v>5</v>
       </c>
@@ -753,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -766,6 +806,9 @@
       <c r="E8">
         <v>2023</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -776,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -789,6 +832,12 @@
       <c r="E9">
         <v>2023</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="I9">
         <v>7</v>
       </c>
@@ -796,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -809,6 +858,12 @@
       <c r="E10">
         <v>2023</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>8</v>
       </c>
@@ -816,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -832,6 +887,12 @@
       <c r="E11">
         <v>2023</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>9</v>
       </c>
@@ -839,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -855,6 +916,12 @@
       <c r="E12">
         <v>2023</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>10</v>
       </c>
@@ -862,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -878,6 +945,15 @@
       <c r="E13">
         <v>2023</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.8</v>
+      </c>
       <c r="I13">
         <v>11</v>
       </c>
@@ -885,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -901,6 +977,15 @@
       <c r="E14">
         <v>2023</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <v>12</v>
       </c>
@@ -908,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -924,6 +1009,15 @@
       <c r="E15">
         <v>2023</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
       <c r="I15">
         <v>12</v>
       </c>
@@ -931,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -947,6 +1041,15 @@
       <c r="E16">
         <v>2023</v>
       </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="I16">
         <v>13</v>
       </c>
@@ -954,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -970,6 +1073,15 @@
       <c r="E17">
         <v>2023</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3.6</v>
+      </c>
       <c r="I17">
         <v>14</v>
       </c>
@@ -977,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -993,6 +1105,15 @@
       <c r="E18">
         <v>2023</v>
       </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
       <c r="I18">
         <v>15</v>
       </c>
@@ -1000,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1016,6 +1137,9 @@
       <c r="E19">
         <v>2023</v>
       </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -1029,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1045,6 +1169,9 @@
       <c r="E20">
         <v>2023</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -1058,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1074,6 +1201,9 @@
       <c r="E21">
         <v>2024</v>
       </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
@@ -1087,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1103,14 +1233,23 @@
       <c r="E22">
         <v>2024</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
       <c r="I22">
         <v>6</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1126,8 +1265,14 @@
       <c r="E23">
         <v>2024</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.7</v>
       </c>
       <c r="I23">
         <v>19</v>
@@ -1136,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1152,6 +1297,9 @@
       <c r="E24">
         <v>2024</v>
       </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
@@ -1162,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1178,6 +1326,9 @@
       <c r="E25">
         <v>2024</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="G25">
         <v>1</v>
       </c>
@@ -1188,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1204,8 +1355,14 @@
       <c r="E26">
         <v>2024</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
       <c r="G26">
         <v>0</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
       </c>
       <c r="I26">
         <v>21</v>
@@ -1214,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1230,6 +1387,9 @@
       <c r="E27">
         <v>2024</v>
       </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -1243,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1259,6 +1419,15 @@
       <c r="E28">
         <v>2024</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>6.2</v>
+      </c>
       <c r="I28">
         <v>23</v>
       </c>
@@ -1266,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1282,6 +1451,15 @@
       <c r="E29">
         <v>2024</v>
       </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4.7</v>
+      </c>
       <c r="I29">
         <v>24</v>
       </c>
@@ -1289,7 +1467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1305,8 +1483,11 @@
       <c r="E30">
         <v>2024</v>
       </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>7.4</v>
@@ -1318,8 +1499,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B31" t="s">
@@ -1341,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1357,6 +1538,9 @@
       <c r="E32">
         <v>2024</v>
       </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -1370,14 +1554,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33">
@@ -1386,6 +1570,12 @@
       <c r="E33">
         <v>2024</v>
       </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
       <c r="H33">
         <v>2.4</v>
       </c>
@@ -1395,8 +1585,11 @@
       <c r="J33">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1428,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1444,6 +1637,9 @@
       <c r="E35">
         <v>2024</v>
       </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -1459,5 +1655,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>